--- a/experiments/preprocessing/debug_splits/raw_val_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_val_split.xlsx
@@ -820,9 +820,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>24</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -861,9 +859,7 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>29</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -1185,9 +1181,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>30</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>1</v>
       </c>
@@ -1427,9 +1421,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>45</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>1</v>
       </c>

--- a/experiments/preprocessing/debug_splits/raw_val_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_val_split.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>Embarked</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>temp_index</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -525,9 +520,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,9 +556,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -603,9 +592,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -646,9 +632,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -685,9 +668,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,9 +704,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -763,9 +740,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -802,9 +776,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -841,9 +812,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,9 +852,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K11" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -923,9 +888,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K12" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -962,9 +924,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1001,9 +960,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K14" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1044,9 +1000,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K15" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1083,9 +1036,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K16" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1126,9 +1076,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1163,9 +1110,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K18" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1204,9 +1148,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K19" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1243,9 +1184,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K20" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1282,9 +1220,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K21" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1323,9 +1258,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K22" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1362,9 +1294,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K23" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1403,9 +1332,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K24" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1444,9 +1370,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K25" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1483,9 +1406,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K26" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1522,9 +1442,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K27" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1563,9 +1480,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K28" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1606,9 +1520,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K29" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1649,9 +1560,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K30" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1688,9 +1596,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K31" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1727,9 +1632,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K32" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1772,9 +1674,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K33" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1811,9 +1710,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K34" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1850,9 +1746,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K35" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1895,9 +1788,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K36" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1940,9 +1830,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K37" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1981,9 +1868,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K38" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2020,9 +1904,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K39" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2057,9 +1938,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2096,9 +1974,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K41" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2139,9 +2014,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K42" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2180,9 +2052,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K43" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2219,9 +2088,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K44" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2256,9 +2122,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K45" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2301,9 +2164,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K46" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2340,9 +2200,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K47" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2379,9 +2236,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K48" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2418,9 +2272,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K49" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2455,9 +2306,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K50" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2498,9 +2346,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K51" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2543,9 +2388,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K52" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2582,9 +2424,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K53" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2619,9 +2458,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K54" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2658,9 +2494,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K55" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2697,9 +2530,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K56" t="n">
-        <v>54</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2740,9 +2570,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K57" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2781,9 +2608,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K58" t="n">
-        <v>56</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2818,9 +2642,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K59" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2855,9 +2676,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K60" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2892,9 +2710,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K61" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2933,9 +2748,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K62" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2974,9 +2786,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K63" t="n">
-        <v>61</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3019,9 +2828,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K64" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3058,9 +2864,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K65" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3099,9 +2902,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K66" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3142,9 +2942,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K67" t="n">
-        <v>65</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3181,9 +2978,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K68" t="n">
-        <v>66</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3222,9 +3016,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K69" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3263,9 +3054,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K70" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3302,9 +3090,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K71" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3345,9 +3130,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K72" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3384,9 +3166,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K73" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3421,9 +3200,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K74" t="n">
-        <v>72</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3464,9 +3240,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K75" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3503,9 +3276,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K76" t="n">
-        <v>74</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3540,9 +3310,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K77" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3581,9 +3348,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K78" t="n">
-        <v>76</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3624,9 +3388,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K79" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3663,9 +3424,6 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="K80" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3702,9 +3460,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K81" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3741,9 +3496,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K82" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3784,9 +3536,6 @@
           <t>S</t>
         </is>
       </c>
-      <c r="K83" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3825,9 +3574,6 @@
           <t>C</t>
         </is>
       </c>
-      <c r="K84" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3863,9 +3609,6 @@
         <is>
           <t>S</t>
         </is>
-      </c>
-      <c r="K85" t="n">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/preprocessing/debug_splits/raw_val_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_val_split.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,13 +486,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -500,57 +498,59 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2692</v>
+        <v>2908</v>
       </c>
       <c r="H2" t="n">
-        <v>7.225</v>
+        <v>26</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>220845</v>
+        <v>348121</v>
       </c>
       <c r="H3" t="n">
-        <v>65</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>7.65</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>F G63</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>S</t>
@@ -558,145 +558,137 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A4" t="n">
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2625</v>
+        <v>347068</v>
       </c>
       <c r="H4" t="n">
-        <v>8.5167</v>
+        <v>7.775</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>13508</v>
+        <v>4138</v>
       </c>
       <c r="H5" t="n">
-        <v>136.7792</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C89</t>
-        </is>
-      </c>
+        <v>9.841699999999999</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>28</v>
+      </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>113788</v>
+      </c>
+      <c r="H6" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>CA. 2343</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>69.55</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>28</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>244358</v>
-      </c>
-      <c r="H7" t="n">
-        <v>26</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
@@ -706,21 +698,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A8" t="n">
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -729,26 +719,24 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>330844</v>
+        <v>14973</v>
       </c>
       <c r="H8" t="n">
-        <v>7.8792</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -756,32 +744,32 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>371362</v>
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PC 17761</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>16.1</v>
+        <v>106.425</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A10" t="n">
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
@@ -800,11 +788,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>S.O./P.P. 752</t>
+          <t>A/5 2817</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7.55</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
@@ -814,75 +802,73 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A11" t="n">
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2669</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.2292</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>PC 17483</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>221.7792</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>C97</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>347090</v>
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PP 9549</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>16.7</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>S</t>
@@ -890,10 +876,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A13" t="n">
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -904,7 +888,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -913,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>350408</v>
+        <v>364512</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8542</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
@@ -926,13 +910,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A14" t="n">
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -940,7 +922,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -949,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>350033</v>
+        <v>113792</v>
       </c>
       <c r="H14" t="n">
-        <v>7.7958</v>
+        <v>26.55</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
@@ -962,13 +944,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A15" t="n">
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -976,7 +956,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -984,31 +964,27 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
-        <v>2543</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SW/PP 751</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>28.5375</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>C53</t>
-        </is>
-      </c>
+        <v>10.5</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A16" t="n">
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1016,7 +992,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1024,11 +1000,13 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="n">
-        <v>342684</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C.A. 17248</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>8.050000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
@@ -1038,39 +1016,33 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A17" t="n">
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>113781</v>
+        <v>3101278</v>
       </c>
       <c r="H17" t="n">
-        <v>151.55</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>C22 C26</t>
-        </is>
-      </c>
+        <v>15.85</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>S</t>
@@ -1078,10 +1050,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>3</v>
@@ -1099,72 +1069,64 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>330924</v>
+        <v>2649</v>
       </c>
       <c r="H18" t="n">
-        <v>7.8792</v>
+        <v>7.225</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A19" t="n">
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13236</v>
+        <v>335677</v>
       </c>
       <c r="H19" t="n">
-        <v>57.75</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>C78</t>
-        </is>
-      </c>
+        <v>7.75</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A20" t="n">
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1173,26 +1135,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382653</v>
+        <v>111320</v>
       </c>
       <c r="H20" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>38.5</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>E63</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A21" t="n">
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1200,7 +1164,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1209,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>113801</v>
+        <v>374887</v>
       </c>
       <c r="H21" t="n">
-        <v>45.5</v>
+        <v>7.25</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
@@ -1222,13 +1186,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A22" t="n">
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1236,23 +1198,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>C.A. 33112</t>
-        </is>
+      <c r="G22" t="n">
+        <v>113776</v>
       </c>
       <c r="H22" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>S</t>
@@ -1260,10 +1224,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A23" t="n">
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
@@ -1274,7 +1236,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1283,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>363611</v>
+        <v>363294</v>
       </c>
       <c r="H23" t="n">
         <v>8.050000000000001</v>
@@ -1296,109 +1258,97 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A24" t="n">
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>27</v>
+      </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>17463</v>
+        <v>2659</v>
       </c>
       <c r="H24" t="n">
-        <v>51.8625</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>E46</t>
-        </is>
-      </c>
+        <v>14.4542</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A25" t="n">
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>16966</v>
+        <v>382652</v>
       </c>
       <c r="H25" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>E34</t>
-        </is>
-      </c>
+        <v>29.125</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A26" t="n">
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>26</v>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>248738</v>
+        <v>376564</v>
       </c>
       <c r="H26" t="n">
-        <v>29</v>
+        <v>16.1</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
@@ -1408,13 +1358,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A27" t="n">
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1422,19 +1370,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>28220</v>
+        <v>113794</v>
       </c>
       <c r="H27" t="n">
-        <v>32.5</v>
+        <v>26.55</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
@@ -1444,21 +1392,19 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A28" t="n">
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1466,13 +1412,11 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>F.C.C. 13534</t>
-        </is>
+      <c r="G28" t="n">
+        <v>349205</v>
       </c>
       <c r="H28" t="n">
-        <v>21</v>
+        <v>7.8958</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
@@ -1482,13 +1426,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A29" t="n">
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1496,7 +1438,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1505,56 +1447,48 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>13050</v>
+        <v>350052</v>
       </c>
       <c r="H29" t="n">
-        <v>75.24169999999999</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>C6</t>
-        </is>
-      </c>
+        <v>7.7958</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A30" t="n">
+        <v>1</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
-        <v>230136</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C.A. 33112</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>39</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>F4</t>
-        </is>
-      </c>
+        <v>36.75</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>S</t>
@@ -1562,58 +1496,50 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A31" t="n">
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>45</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112378</v>
+        <v>374746</v>
       </c>
       <c r="H31" t="n">
-        <v>59.4</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A32" t="n">
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -1621,284 +1547,266 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2698</v>
+        <v>239853</v>
       </c>
       <c r="H32" t="n">
-        <v>7.225</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>112052</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>71</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PC 17754</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>34.6542</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>695</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>B51 B53 B55</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>349208</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7.8958</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>22</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PC 17760</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>135.6333</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>45</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>113050</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>B38</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>47</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>W.E.P. 5734</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>61.175</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>E31</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>31</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>345763</v>
-      </c>
-      <c r="H34" t="n">
-        <v>18</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>23</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>350054</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7.7958</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>37</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>PC 17756</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>83.1583</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>E52</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>47</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>PC 17757</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>227.525</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>C62 C64</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>50</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>A/5. 3337</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>347077</v>
+        <v>230136</v>
       </c>
       <c r="H39" t="n">
-        <v>31.3875</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>S</t>
@@ -1906,120 +1814,110 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A40" t="n">
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>370371</v>
+        <v>2629</v>
       </c>
       <c r="H40" t="n">
-        <v>15.5</v>
+        <v>7.2292</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>35</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>36973</v>
+      </c>
+      <c r="H41" t="n">
+        <v>83.47499999999999</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>C83</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>14312</v>
+      </c>
+      <c r="H42" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>Q</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>29</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3101297</v>
-      </c>
-      <c r="H41" t="n">
-        <v>7.925</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>24</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>21228</v>
-      </c>
-      <c r="H42" t="n">
-        <v>82.2667</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>B45</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A43" t="n">
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
@@ -2030,7 +1928,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2038,13 +1936,11 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>C.A. 6212</t>
-        </is>
+      <c r="G43" t="n">
+        <v>347069</v>
       </c>
       <c r="H43" t="n">
-        <v>15.1</v>
+        <v>7.775</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
@@ -2054,10 +1950,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A44" t="n">
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>2</v>
@@ -2068,19 +1962,21 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>26360</v>
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>F.C.C. 13528</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
@@ -2090,13 +1986,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A45" t="n">
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2105,71 +1999,67 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PC 17569</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>146.5208</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>B78</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="n">
-        <v>2661</v>
-      </c>
-      <c r="H45" t="n">
-        <v>15.2458</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>39</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>PC 17599</t>
-        </is>
+      <c r="G46" t="n">
+        <v>347082</v>
       </c>
       <c r="H46" t="n">
-        <v>71.2833</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>C85</t>
-        </is>
-      </c>
+        <v>31.275</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A47" t="n">
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
@@ -2180,7 +2070,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2189,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>315083</v>
+        <v>349243</v>
       </c>
       <c r="H47" t="n">
-        <v>8.6625</v>
+        <v>7.8958</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
@@ -2202,69 +2092,69 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A48" t="n">
+        <v>1</v>
       </c>
       <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>23</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>35273</v>
+      </c>
+      <c r="H48" t="n">
+        <v>113.275</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>D36</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>49</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>220845</v>
-      </c>
-      <c r="H48" t="n">
-        <v>65</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>3</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>26</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
-        <v>347070</v>
+        <v>347077</v>
       </c>
       <c r="H49" t="n">
-        <v>7.775</v>
+        <v>31.3875</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
@@ -2274,10 +2164,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A50" t="n">
+        <v>0</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -2294,67 +2182,67 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="n">
-        <v>2681</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>C.A. 6212</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>6.4375</v>
+        <v>15.1</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PC 17485</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>56.9292</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>A20</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>113503</v>
-      </c>
-      <c r="H51" t="n">
-        <v>211.5</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>C80</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A52" t="n">
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2362,7 +2250,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2372,64 +2260,56 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PC 17591</t>
+          <t>SOTON/O.Q. 3101310</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>50.4958</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>B10</t>
-        </is>
-      </c>
+        <v>7.05</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A53" t="n">
+        <v>1</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24</v>
+        <v>0.75</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>350409</v>
+        <v>2666</v>
       </c>
       <c r="H53" t="n">
-        <v>7.8542</v>
+        <v>19.2583</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A54" t="n">
+        <v>0</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
@@ -2439,7 +2319,9 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>37</v>
+      </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
@@ -2447,34 +2329,32 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>364856</v>
+        <v>4135</v>
       </c>
       <c r="H54" t="n">
-        <v>7.75</v>
+        <v>9.5875</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A55" t="n">
+        <v>0</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -2483,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>347072</v>
+        <v>349910</v>
       </c>
       <c r="H55" t="n">
-        <v>13.9</v>
+        <v>15.55</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
@@ -2496,13 +2376,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A56" t="n">
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2510,19 +2388,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>28666</v>
+        <v>349224</v>
       </c>
       <c r="H56" t="n">
-        <v>10.5</v>
+        <v>7.8958</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
@@ -2532,50 +2410,40 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A57" t="n">
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>43</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>17765</v>
+        <v>239853</v>
       </c>
       <c r="H57" t="n">
-        <v>27.7208</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>D40</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A58" t="n">
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -2586,7 +2454,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -2596,11 +2464,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>C 4001</t>
+          <t>A/5 3902</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>22.525</v>
+        <v>7.25</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
@@ -2610,47 +2478,49 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A59" t="n">
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>47</v>
+      </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2621</v>
+        <v>11751</v>
       </c>
       <c r="H59" t="n">
-        <v>6.4375</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>52.5542</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>D35</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A60" t="n">
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2665,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>349220</v>
+        <v>239856</v>
       </c>
       <c r="H60" t="n">
-        <v>7.8958</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
@@ -2678,44 +2548,44 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A61" t="n">
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>21</v>
+      </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="n">
-        <v>17770</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>A/5. 13032</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>27.7208</v>
+        <v>7.7333</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A62" t="n">
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>2</v>
@@ -2726,21 +2596,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>S.O.C. 14879</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>29106</v>
       </c>
       <c r="H62" t="n">
-        <v>73.5</v>
+        <v>18.75</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
@@ -2750,20 +2618,20 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A63" t="n">
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>52</v>
+      </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
@@ -2771,16 +2639,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>113778</v>
+        <v>250647</v>
       </c>
       <c r="H63" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>D34</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
           <t>S</t>
@@ -2788,126 +2652,114 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A64" t="n">
+        <v>1</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>48</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PC 17572</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>76.72920000000001</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>D33</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>45</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>PC 17759</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>63.3583</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>D10 D12</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>29</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>347467</v>
+        <v>364848</v>
       </c>
       <c r="H65" t="n">
-        <v>7.8542</v>
+        <v>7.75</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A66" t="n">
+        <v>0</v>
       </c>
       <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>29</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>SC/PARIS 2147</t>
+          <t>CA. 2343</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>13.8583</v>
+        <v>69.55</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A67" t="n">
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2918,59 +2770,57 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>24160</v>
+      </c>
+      <c r="H67" t="n">
+        <v>211.3375</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
         <v>2</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>11770</v>
-      </c>
-      <c r="H67" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3</v>
-      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>28</v>
+      </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>A. 2. 39186</t>
-        </is>
+      <c r="G68" t="n">
+        <v>218629</v>
       </c>
       <c r="H68" t="n">
-        <v>8.050000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
@@ -2980,13 +2830,11 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A69" t="n">
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2994,21 +2842,21 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.75</v>
+        <v>32</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>SOTON/O.Q. 3101315</t>
+          <t>C.A. 33111</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>13.775</v>
+        <v>10.5</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
@@ -3018,21 +2866,19 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A70" t="n">
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
+        <v>20.5</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3042,11 +2888,11 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>CA 31352</t>
+          <t>A/5 21173</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>21</v>
+        <v>7.25</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
@@ -3056,10 +2902,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A71" t="n">
+        <v>0</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
@@ -3070,19 +2914,21 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
-        <v>228414</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>S.O./P.P. 3</t>
+        </is>
       </c>
       <c r="H71" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
@@ -3092,13 +2938,11 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A72" t="n">
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3106,39 +2950,33 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>16966</v>
+        <v>250652</v>
       </c>
       <c r="H72" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>E39 E41</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A73" t="n">
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3146,42 +2984,46 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>2696</v>
+        <v>19943</v>
       </c>
       <c r="H73" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>C93</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A74" t="n">
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>30</v>
+      </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
@@ -3189,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>112051</v>
+        <v>250653</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
@@ -3202,10 +3044,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A75" t="n">
+        <v>0</v>
       </c>
       <c r="B75" t="n">
         <v>3</v>
@@ -3216,7 +3056,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3225,16 +3065,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>348122</v>
+        <v>8471</v>
       </c>
       <c r="H75" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>F G63</t>
-        </is>
-      </c>
+        <v>8.362500000000001</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
           <t>S</t>
@@ -3242,22 +3078,18 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A76" t="n">
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>3</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>22</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>0</v>
       </c>
@@ -3265,23 +3097,21 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>3101295</v>
+        <v>2700</v>
       </c>
       <c r="H76" t="n">
-        <v>39.6875</v>
+        <v>7.2292</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A77" t="n">
+        <v>0</v>
       </c>
       <c r="B77" t="n">
         <v>3</v>
@@ -3291,7 +3121,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>25</v>
+      </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
@@ -3299,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>345498</v>
+        <v>349203</v>
       </c>
       <c r="H77" t="n">
-        <v>7.775</v>
+        <v>7.8958</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
@@ -3312,13 +3144,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A78" t="n">
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3326,7 +3156,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3334,13 +3164,11 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>SC/PARIS 2168</t>
-        </is>
+      <c r="G78" t="n">
+        <v>2648</v>
       </c>
       <c r="H78" t="n">
-        <v>15.0333</v>
+        <v>4.0125</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
@@ -3350,22 +3178,18 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A79" t="n">
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>18</v>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
         <v>1</v>
       </c>
@@ -3373,16 +3197,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>13695</v>
+        <v>376564</v>
       </c>
       <c r="H79" t="n">
-        <v>60</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>C31</t>
-        </is>
-      </c>
+        <v>16.1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
           <t>S</t>
@@ -3390,10 +3210,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A80" t="n">
+        <v>0</v>
       </c>
       <c r="B80" t="n">
         <v>3</v>
@@ -3403,9 +3221,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>21</v>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
         <v>0</v>
       </c>
@@ -3413,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>330920</v>
+        <v>12460</v>
       </c>
       <c r="H80" t="n">
-        <v>7.8208</v>
+        <v>7.75</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
@@ -3426,13 +3242,11 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A81" t="n">
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -3440,7 +3254,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -3448,11 +3262,13 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="n">
-        <v>237216</v>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>A/5 3536</t>
+        </is>
       </c>
       <c r="H81" t="n">
-        <v>13.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
@@ -3462,49 +3278,47 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A82" t="n">
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="n">
-        <v>112378</v>
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>STON/O 2. 3101289</t>
+        </is>
       </c>
       <c r="H82" t="n">
-        <v>59.4</v>
+        <v>7.925</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A83" t="n">
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3512,7 +3326,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3521,16 +3335,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>113054</v>
+        <v>248731</v>
       </c>
       <c r="H83" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>A21</t>
-        </is>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
           <t>S</t>
@@ -3538,76 +3348,3396 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+      <c r="A84" t="n">
+        <v>0</v>
       </c>
       <c r="B84" t="n">
+        <v>3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>2</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>24</v>
-      </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>S.C./PARIS 2079</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>347082</v>
       </c>
       <c r="H84" t="n">
-        <v>37.0042</v>
+        <v>31.275</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="A85" t="n">
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>24</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>342441</v>
+        <v>220845</v>
       </c>
       <c r="H85" t="n">
-        <v>8.050000000000001</v>
+        <v>65</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
           <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>36</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>226875</v>
+      </c>
+      <c r="H86" t="n">
+        <v>26</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>52</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>113786</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>16</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>SOTON/OQ 392089</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>36</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>C.A. 34651</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>STON/O2. 3101271</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7.925</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>43</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>24160</v>
+      </c>
+      <c r="H91" t="n">
+        <v>211.3375</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>371110</v>
+      </c>
+      <c r="H92" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>52</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>36947</v>
+      </c>
+      <c r="H93" t="n">
+        <v>78.2667</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>D20</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>29</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>345779</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>40</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>29750</v>
+      </c>
+      <c r="H95" t="n">
+        <v>39</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>113505</v>
+      </c>
+      <c r="H96" t="n">
+        <v>55</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>55</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>248706</v>
+      </c>
+      <c r="H97" t="n">
+        <v>16</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>112379</v>
+      </c>
+      <c r="H98" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>59</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>237442</v>
+      </c>
+      <c r="H99" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>29106</v>
+      </c>
+      <c r="H100" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2641</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7.2292</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>16</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PC 17592</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>D28</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>347742</v>
+      </c>
+      <c r="H103" t="n">
+        <v>11.1333</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>33</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>345780</v>
+      </c>
+      <c r="H104" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>30</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>A.5. 18509</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>CA. 2343</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>69.55</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>24</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>349236</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2689</v>
+      </c>
+      <c r="H108" t="n">
+        <v>14.4583</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>27</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>315098</v>
+      </c>
+      <c r="H109" t="n">
+        <v>8.6625</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>19</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>112053</v>
+      </c>
+      <c r="H110" t="n">
+        <v>30</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>B42</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>113781</v>
+      </c>
+      <c r="H111" t="n">
+        <v>151.55</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>C22 C26</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>22</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>345767</v>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>24</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>11767</v>
+      </c>
+      <c r="H113" t="n">
+        <v>83.1583</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>C54</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>33</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>19928</v>
+      </c>
+      <c r="H114" t="n">
+        <v>90</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>C78</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>36</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>PC 17473</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>26.2875</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>E25</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>SC/Paris 2123</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>41.5792</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>26</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2680</v>
+      </c>
+      <c r="H117" t="n">
+        <v>14.4542</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>35</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PC 17755</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>512.3292</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>B101</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>29</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>11668</v>
+      </c>
+      <c r="H119" t="n">
+        <v>21</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>41</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>16966</v>
+      </c>
+      <c r="H120" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>E40</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>16</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>W./C. 6608</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>47</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5727</v>
+      </c>
+      <c r="H122" t="n">
+        <v>25.5875</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>E58</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>23</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>PC 17759</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>63.3583</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>D10 D12</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>41</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>250644</v>
+      </c>
+      <c r="H124" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>34</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>347080</v>
+      </c>
+      <c r="H125" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>29103</v>
+      </c>
+      <c r="H126" t="n">
+        <v>23</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>28</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1601</v>
+      </c>
+      <c r="H127" t="n">
+        <v>56.4958</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>45</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>113784</v>
+      </c>
+      <c r="H128" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>347078</v>
+      </c>
+      <c r="H129" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3101295</v>
+      </c>
+      <c r="H130" t="n">
+        <v>39.6875</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>113798</v>
+      </c>
+      <c r="H131" t="n">
+        <v>31</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="n">
+        <v>230080</v>
+      </c>
+      <c r="H132" t="n">
+        <v>26</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>30</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>345773</v>
+      </c>
+      <c r="H133" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>22</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>349206</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7.8958</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>25</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" t="n">
+        <v>113781</v>
+      </c>
+      <c r="H135" t="n">
+        <v>151.55</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>C22 C26</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>24</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>376566</v>
+      </c>
+      <c r="H136" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>43</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>F.C.C. 13529</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>28</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>PC 17604</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>82.1708</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>29</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3460</v>
+      </c>
+      <c r="H139" t="n">
+        <v>7.0458</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>27</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>392096</v>
+      </c>
+      <c r="H140" t="n">
+        <v>12.475</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>E121</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>35</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>STON/O 2. 3101273</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7.125</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>55</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>113787</v>
+      </c>
+      <c r="H142" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>C30</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>40</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>PC 17582</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>153.4625</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>C125</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>371110</v>
+      </c>
+      <c r="H144" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>24</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>STON/O2. 3101279</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>27</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>113806</v>
+      </c>
+      <c r="H146" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>231945</v>
+      </c>
+      <c r="H147" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2647</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>19</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" t="n">
+        <v>11752</v>
+      </c>
+      <c r="H149" t="n">
+        <v>26.2833</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>D47</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>21</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>350034</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7.7958</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>42</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>243847</v>
+      </c>
+      <c r="H151" t="n">
+        <v>27</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>27</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>350043</v>
+      </c>
+      <c r="H152" t="n">
+        <v>7.7958</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>SOTON/OQ 3101316</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>30</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>P/PP 3381</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>24</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>32</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>234604</v>
+      </c>
+      <c r="H155" t="n">
+        <v>13</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>35852</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7.7333</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>24</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2666</v>
+      </c>
+      <c r="H157" t="n">
+        <v>19.2583</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>36</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>WE/P 5735</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>71</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>B22</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>51</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>347064</v>
+      </c>
+      <c r="H159" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2661</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15.2458</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>367655</v>
+      </c>
+      <c r="H161" t="n">
+        <v>7.7292</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>28</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>P/PP 3381</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>24</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>33</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>347062</v>
+      </c>
+      <c r="H163" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>35</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>PC 17760</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>135.6333</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>C99</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>22</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>SC/Paris 2123</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>41.5792</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>C.A. 37671</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>54</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>244252</v>
+      </c>
+      <c r="H167" t="n">
+        <v>26</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>28</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>347464</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7.8542</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>19</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>C.A. 33112</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>36</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>349210</v>
+      </c>
+      <c r="H170" t="n">
+        <v>7.4958</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>349223</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7.8958</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>11</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>CA 2144</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>54636</v>
+      </c>
+      <c r="H173" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>21</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>315097</v>
+      </c>
+      <c r="H174" t="n">
+        <v>8.6625</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>17</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" t="n">
+        <v>17421</v>
+      </c>
+      <c r="H175" t="n">
+        <v>110.8833</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>C70</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>35</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>PC 17475</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>26.2875</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>E24</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>19</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>349231</v>
+      </c>
+      <c r="H177" t="n">
+        <v>7.8958</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>17</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>SO/C 14885</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>32</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>364849</v>
+      </c>
+      <c r="H179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Q</t>
         </is>
       </c>
     </row>

--- a/experiments/preprocessing/debug_splits/raw_val_split.xlsx
+++ b/experiments/preprocessing/debug_splits/raw_val_split.xlsx
@@ -487,10 +487,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -498,24 +498,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2908</v>
+        <v>2695</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>7.2292</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -541,16 +541,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>348121</v>
+        <v>248740</v>
       </c>
       <c r="H3" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>F G63</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>S</t>
@@ -559,7 +555,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -570,19 +566,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>347068</v>
+        <v>347742</v>
       </c>
       <c r="H4" t="n">
-        <v>7.775</v>
+        <v>11.1333</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -593,18 +589,18 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -613,24 +609,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4138</v>
+        <v>17764</v>
       </c>
       <c r="H5" t="n">
-        <v>9.841699999999999</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>30.6958</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -647,16 +647,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>113788</v>
+        <v>349252</v>
       </c>
       <c r="H6" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>A6</t>
-        </is>
-      </c>
+        <v>7.8958</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>S</t>
@@ -675,20 +671,20 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>CA. 2343</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>349249</v>
       </c>
       <c r="H7" t="n">
-        <v>69.55</v>
+        <v>7.8958</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
@@ -702,16 +698,14 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>22</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>0</v>
       </c>
@@ -719,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>14973</v>
+        <v>239853</v>
       </c>
       <c r="H8" t="n">
-        <v>8.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
@@ -736,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -744,26 +738,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>PC 17761</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>347742</v>
       </c>
       <c r="H9" t="n">
-        <v>106.425</v>
+        <v>11.1333</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -772,14 +764,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>71</v>
+      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -788,16 +782,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A/5 2817</t>
+          <t>PC 17609</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8.050000000000001</v>
+        <v>49.5042</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -810,28 +804,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2669</v>
+        <v>4137</v>
       </c>
       <c r="H11" t="n">
-        <v>7.2292</v>
+        <v>9.824999999999999</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -840,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -848,25 +842,23 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>PP 9549</t>
-        </is>
+      <c r="G12" t="n">
+        <v>113760</v>
       </c>
       <c r="H12" t="n">
-        <v>16.7</v>
+        <v>120</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>B96 B98</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -877,7 +869,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -888,7 +880,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -897,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>364512</v>
+        <v>350417</v>
       </c>
       <c r="H13" t="n">
-        <v>8.050000000000001</v>
+        <v>7.8542</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
@@ -914,27 +906,27 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>56</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="n">
-        <v>113792</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>A/5 2817</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>26.55</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
@@ -948,29 +940,27 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>SW/PP 751</t>
-        </is>
+      <c r="G15" t="n">
+        <v>3101278</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>15.85</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
@@ -992,21 +982,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>C.A. 17248</t>
-        </is>
+      <c r="G16" t="n">
+        <v>28134</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
@@ -1028,19 +1016,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3101278</v>
+        <v>392091</v>
       </c>
       <c r="H17" t="n">
-        <v>15.85</v>
+        <v>9.35</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
@@ -1063,18 +1051,22 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2649</v>
+        <v>2668</v>
       </c>
       <c r="H18" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>22.3583</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>F E69</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>C</t>
@@ -1083,17 +1075,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>21</v>
+      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -1101,15 +1095,15 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>335677</v>
+        <v>54636</v>
       </c>
       <c r="H19" t="n">
-        <v>7.75</v>
+        <v>16.1</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1126,23 +1120,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="n">
-        <v>111320</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>F.C. 12750</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>38.5</v>
+        <v>52</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>E63</t>
+          <t>B71</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1164,7 +1160,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1173,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>374887</v>
+        <v>8475</v>
       </c>
       <c r="H21" t="n">
-        <v>7.25</v>
+        <v>8.433299999999999</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
@@ -1187,36 +1183,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113776</v>
+        <v>250653</v>
       </c>
       <c r="H22" t="n">
-        <v>66.59999999999999</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>S</t>
@@ -1225,7 +1217,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
@@ -1236,7 +1228,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1245,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>363294</v>
+        <v>350043</v>
       </c>
       <c r="H23" t="n">
-        <v>8.050000000000001</v>
+        <v>7.7958</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
@@ -1262,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1270,7 +1262,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1278,13 +1270,19 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="G24" t="n">
-        <v>2659</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PC 17758</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>14.4542</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>108.9</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>C65</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>C</t>
@@ -1304,24 +1302,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>382652</v>
+        <v>349910</v>
       </c>
       <c r="H25" t="n">
-        <v>29.125</v>
+        <v>15.55</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1337,18 +1335,20 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>16</v>
+      </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>376564</v>
+        <v>3101295</v>
       </c>
       <c r="H26" t="n">
-        <v>16.1</v>
+        <v>39.6875</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
@@ -1359,10 +1359,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>113794</v>
+        <v>347063</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55</v>
+        <v>7.775</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>349205</v>
+        <v>7534</v>
       </c>
       <c r="H28" t="n">
-        <v>7.8958</v>
+        <v>9.845800000000001</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
@@ -1427,32 +1427,38 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>350052</v>
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PC 17592</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>7.7958</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>39.4</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>D28</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>S</t>
@@ -1464,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1472,21 +1478,21 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C.A. 33112</t>
+          <t>A/5 3540</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>36.75</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
@@ -1497,28 +1503,30 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>31</v>
+      </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>374746</v>
+        <v>363291</v>
       </c>
       <c r="H31" t="n">
-        <v>8.050000000000001</v>
+        <v>20.525</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -1532,14 +1540,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>44</v>
+      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -1547,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>239853</v>
+        <v>363592</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
@@ -1561,28 +1571,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>17</v>
+      </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
-        <v>112052</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SO/C 14885</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
@@ -1596,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1604,30 +1618,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>PC 17754</t>
-        </is>
+      <c r="G34" t="n">
+        <v>350048</v>
       </c>
       <c r="H34" t="n">
-        <v>34.6542</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>A5</t>
-        </is>
-      </c>
+        <v>7.0542</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1644,7 +1652,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1652,17 +1660,15 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
-      <c r="G35" t="n">
-        <v>695</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SOTON/OQ 392076</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>B51 B53 B55</t>
-        </is>
-      </c>
+        <v>7.05</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>S</t>
@@ -1681,7 +1687,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>30</v>
+      </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
@@ -1689,15 +1697,15 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>349208</v>
+        <v>2694</v>
       </c>
       <c r="H36" t="n">
-        <v>7.8958</v>
+        <v>7.225</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1714,43 +1722,43 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>PC 17760</t>
+          <t>CA 2144</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>135.6333</v>
+        <v>46.9</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1759,16 +1767,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>113050</v>
+        <v>347085</v>
       </c>
       <c r="H38" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>B38</t>
-        </is>
-      </c>
+        <v>7.775</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
           <t>S</t>
@@ -1780,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1788,41 +1792,43 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
-        <v>230136</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PC 17756</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>39</v>
+        <v>83.1583</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>E49</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1833,48 +1839,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2629</v>
+        <v>14311</v>
       </c>
       <c r="H40" t="n">
-        <v>7.2292</v>
+        <v>7.75</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>35</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>36973</v>
+        <v>113056</v>
       </c>
       <c r="H41" t="n">
-        <v>83.47499999999999</v>
+        <v>26</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>C83</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -1895,52 +1899,54 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>14312</v>
+        <v>3101298</v>
       </c>
       <c r="H42" t="n">
-        <v>7.75</v>
+        <v>12.2875</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>347069</v>
+        <v>345572</v>
       </c>
       <c r="H43" t="n">
-        <v>7.775</v>
+        <v>17.4</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
@@ -1951,18 +1957,18 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1970,62 +1976,56 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>F.C.C. 13528</t>
-        </is>
+      <c r="G44" t="n">
+        <v>336439</v>
       </c>
       <c r="H44" t="n">
-        <v>21</v>
+        <v>7.75</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PC 17569</t>
+          <t>A/5 2466</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>146.5208</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>B78</t>
-        </is>
-      </c>
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -2036,19 +2036,21 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>347082</v>
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>STON/O 2. 3101286</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>31.275</v>
+        <v>7.925</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2070,7 +2072,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2079,12 +2081,16 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>349243</v>
+        <v>112050</v>
       </c>
       <c r="H47" t="n">
-        <v>7.8958</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>A36</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>S</t>
@@ -2096,42 +2102,38 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>35273</v>
+        <v>347077</v>
       </c>
       <c r="H48" t="n">
-        <v>113.275</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>D36</t>
-        </is>
-      </c>
+        <v>31.3875</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
@@ -2142,19 +2144,21 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>347077</v>
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>31.3875</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
@@ -2168,41 +2172,41 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>32.5</v>
+      </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>C.A. 6212</t>
-        </is>
+      <c r="G50" t="n">
+        <v>237736</v>
       </c>
       <c r="H50" t="n">
-        <v>15.1</v>
+        <v>30.0708</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2210,48 +2214,40 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>49</v>
+        <v>28.5</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>PC 17485</t>
-        </is>
+      <c r="G51" t="n">
+        <v>54636</v>
       </c>
       <c r="H51" t="n">
-        <v>56.9292</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>A20</t>
-        </is>
-      </c>
+        <v>16.1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>35</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>0</v>
       </c>
@@ -2260,16 +2256,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>SOTON/O.Q. 3101310</t>
+          <t>PC 17585</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7.05</v>
+        <v>79.2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2309,10 +2305,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2320,7 +2316,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2329,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>4135</v>
+        <v>19877</v>
       </c>
       <c r="H54" t="n">
-        <v>9.5875</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
@@ -2343,52 +2339,52 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>36</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
-      <c r="G55" t="n">
-        <v>349910</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SC/PARIS 2146</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>15.55</v>
+        <v>13.8625</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -2397,12 +2393,16 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>349224</v>
+        <v>248733</v>
       </c>
       <c r="H56" t="n">
-        <v>7.8958</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>F33</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>S</t>
@@ -2411,28 +2411,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>35</v>
+      </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>239853</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>F.C.C. 13528</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
@@ -2443,34 +2447,36 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>47</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>A/5 3902</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11751</v>
       </c>
       <c r="H58" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>52.5542</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>D35</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
           <t>S</t>
@@ -2479,36 +2485,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>47</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>11751</v>
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>S.O./P.P. 751</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>52.5542</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>D35</t>
-        </is>
-      </c>
+        <v>7.55</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
           <t>S</t>
@@ -2520,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2535,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>239856</v>
+        <v>349223</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>7.8958</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
@@ -2549,7 +2551,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -2560,7 +2562,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -2568,52 +2570,48 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>A/5. 13032</t>
-        </is>
+      <c r="G61" t="n">
+        <v>1601</v>
       </c>
       <c r="H61" t="n">
-        <v>7.7333</v>
+        <v>56.4958</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>3</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>29106</v>
+        <v>370371</v>
       </c>
       <c r="H62" t="n">
-        <v>18.75</v>
+        <v>15.5</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -2622,16 +2620,14 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>52</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>0</v>
       </c>
@@ -2639,15 +2635,15 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>250647</v>
+        <v>364851</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>7.75</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2664,30 +2660,24 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>48</v>
+        <v>0.67</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>PC 17572</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>250649</v>
       </c>
       <c r="H64" t="n">
-        <v>76.72920000000001</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>D33</t>
-        </is>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2700,95 +2690,101 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>30</v>
+      </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="n">
-        <v>364848</v>
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>SOTON/OQ 392090</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>7.75</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>32</v>
+      </c>
       <c r="E66" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>CA. 2343</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>13214</v>
       </c>
       <c r="H66" t="n">
-        <v>69.55</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>B50</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>24160</v>
+        <v>2</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>CA 2144</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>211.3375</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>B5</t>
-        </is>
-      </c>
+        <v>46.9</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
           <t>S</t>
@@ -2797,7 +2793,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
         <v>2</v>
@@ -2808,7 +2804,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2816,11 +2812,13 @@
       <c r="F68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="n">
-        <v>218629</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SW/PP 751</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
@@ -2831,18 +2829,18 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -2852,13 +2850,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>C.A. 33111</t>
+          <t>PC 17582</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>153.4625</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>C125</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>S</t>
@@ -2867,18 +2869,18 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>20.5</v>
+        <v>26</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -2886,13 +2888,11 @@
       <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>A/5 21173</t>
-        </is>
+      <c r="G70" t="n">
+        <v>347470</v>
       </c>
       <c r="H70" t="n">
-        <v>7.25</v>
+        <v>7.8542</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2914,21 +2914,19 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>S.O./P.P. 3</t>
-        </is>
+      <c r="G71" t="n">
+        <v>349237</v>
       </c>
       <c r="H71" t="n">
-        <v>10.5</v>
+        <v>17.8</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
@@ -2942,99 +2940,95 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>18</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>250652</v>
+        <v>11774</v>
       </c>
       <c r="H72" t="n">
-        <v>13</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>29.7</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>C47</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>35</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>19943</v>
+        <v>368703</v>
       </c>
       <c r="H73" t="n">
-        <v>90</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>C93</t>
-        </is>
-      </c>
+        <v>7.75</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
         <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>250653</v>
+        <v>2908</v>
       </c>
       <c r="H74" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
@@ -3045,10 +3039,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3056,7 +3050,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3065,12 +3059,16 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>8471</v>
+        <v>113788</v>
       </c>
       <c r="H75" t="n">
-        <v>8.362500000000001</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>35.5</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>S</t>
@@ -3089,52 +3087,58 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>16</v>
+      </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2700</v>
+        <v>1</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>C.A. 2673</t>
+        </is>
       </c>
       <c r="H76" t="n">
-        <v>7.2292</v>
+        <v>20.25</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>349203</v>
+        <v>2</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>C.A. 31921</t>
+        </is>
       </c>
       <c r="H77" t="n">
-        <v>7.8958</v>
+        <v>26.25</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
@@ -3156,7 +3160,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3165,15 +3169,15 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2648</v>
+        <v>3474</v>
       </c>
       <c r="H78" t="n">
-        <v>4.0125</v>
+        <v>7.8875</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3186,21 +3190,21 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>376564</v>
+        <v>1601</v>
       </c>
       <c r="H79" t="n">
-        <v>16.1</v>
+        <v>56.4958</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
@@ -3211,17 +3215,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
         <v>3</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>16</v>
+      </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
@@ -3229,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>12460</v>
+        <v>35851</v>
       </c>
       <c r="H80" t="n">
-        <v>7.75</v>
+        <v>7.7333</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
@@ -3250,25 +3256,25 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>A/5 3536</t>
+          <t>STON/O2. 3101271</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>8.050000000000001</v>
+        <v>7.925</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
@@ -3279,7 +3285,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
@@ -3290,21 +3296,19 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>STON/O 2. 3101289</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3101295</v>
       </c>
       <c r="H82" t="n">
-        <v>7.925</v>
+        <v>39.6875</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
@@ -3318,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -3326,7 +3330,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>52</v>
+        <v>55.5</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -3334,11 +3338,13 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>248731</v>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>A.5. 11206</t>
+        </is>
       </c>
       <c r="H83" t="n">
-        <v>13.5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
@@ -3349,10 +3355,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3360,21 +3366,25 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>32.5</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>347082</v>
+        <v>27267</v>
       </c>
       <c r="H84" t="n">
-        <v>31.275</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>E101</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>S</t>
@@ -3383,35 +3393,37 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
         <v>2</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D85" t="n">
+        <v>30</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>P/PP 3381</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
         <v>24</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2</v>
-      </c>
-      <c r="G85" t="n">
-        <v>220845</v>
-      </c>
-      <c r="H85" t="n">
-        <v>65</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3428,19 +3440,21 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
-      <c r="G86" t="n">
-        <v>226875</v>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>F.C.C. 13531</t>
+        </is>
       </c>
       <c r="H86" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
@@ -3451,10 +3465,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3462,7 +3476,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -3471,16 +3485,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>113786</v>
+        <v>244358</v>
       </c>
       <c r="H87" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
           <t>S</t>
@@ -3489,32 +3499,30 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>SOTON/OQ 392089</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G88" t="n">
+        <v>370129</v>
       </c>
       <c r="H88" t="n">
-        <v>8.050000000000001</v>
+        <v>20.2125</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
@@ -3528,29 +3536,25 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>36</v>
-      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>C.A. 34651</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>349215</v>
       </c>
       <c r="H89" t="n">
-        <v>27.75</v>
+        <v>7.8958</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
@@ -3572,21 +3576,19 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>STON/O2. 3101271</t>
-        </is>
+      <c r="G90" t="n">
+        <v>4135</v>
       </c>
       <c r="H90" t="n">
-        <v>7.925</v>
+        <v>9.5875</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
@@ -3597,39 +3599,35 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>24160</v>
+        <v>382652</v>
       </c>
       <c r="H91" t="n">
-        <v>211.3375</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
+        <v>29.125</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3652,16 +3650,18 @@
       <c r="F92" t="n">
         <v>0</v>
       </c>
-      <c r="G92" t="n">
-        <v>371110</v>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>PC 17604</t>
+        </is>
       </c>
       <c r="H92" t="n">
-        <v>24.15</v>
+        <v>82.1708</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3670,42 +3670,40 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
-      <c r="G93" t="n">
-        <v>36947</v>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>A/5. 10482</t>
+        </is>
       </c>
       <c r="H93" t="n">
-        <v>78.2667</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>D20</t>
-        </is>
-      </c>
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -3716,19 +3714,21 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>345779</v>
+        <v>2</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>C.A. 2315</t>
+        </is>
       </c>
       <c r="H94" t="n">
-        <v>9.5</v>
+        <v>20.575</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3750,37 +3750,37 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>29750</v>
+        <v>330923</v>
       </c>
       <c r="H95" t="n">
-        <v>39</v>
+        <v>8.029199999999999</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -3788,19 +3788,15 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>113505</v>
+        <v>358585</v>
       </c>
       <c r="H96" t="n">
-        <v>55</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>E33</t>
-        </is>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
           <t>S</t>
@@ -3809,35 +3805,33 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
+        <v>3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
         <v>2</v>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>55</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
       <c r="G97" t="n">
-        <v>248706</v>
+        <v>364848</v>
       </c>
       <c r="H97" t="n">
-        <v>16</v>
+        <v>7.75</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -3850,26 +3844,32 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>25</v>
+      </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>112379</v>
+        <v>113781</v>
       </c>
       <c r="H98" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>151.55</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>C22 C26</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3886,19 +3886,19 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>237442</v>
+        <v>350404</v>
       </c>
       <c r="H99" t="n">
-        <v>13.5</v>
+        <v>7.8542</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
@@ -3909,35 +3909,33 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>0.83</v>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>29106</v>
+        <v>349253</v>
       </c>
       <c r="H100" t="n">
-        <v>18.75</v>
+        <v>7.8958</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3950,10 +3948,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>28</v>
+      </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
@@ -3961,55 +3961,47 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2641</v>
+        <v>349245</v>
       </c>
       <c r="H101" t="n">
-        <v>7.2292</v>
+        <v>7.8958</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>16</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>PC 17592</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>371110</v>
       </c>
       <c r="H102" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>D28</t>
-        </is>
-      </c>
+        <v>24.15</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4018,29 +4010,31 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>1</v>
-      </c>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>347742</v>
+        <v>19947</v>
       </c>
       <c r="H103" t="n">
-        <v>11.1333</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>35.5</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>C52</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>S</t>
@@ -4060,7 +4054,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -4069,15 +4063,15 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>345780</v>
+        <v>2683</v>
       </c>
       <c r="H104" t="n">
-        <v>9.5</v>
+        <v>6.4375</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -4094,23 +4088,25 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>A.5. 18509</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>110413</v>
       </c>
       <c r="H105" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>79.65000000000001</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>E67</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>S</t>
@@ -4126,23 +4122,23 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>26</v>
+      </c>
       <c r="E106" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>CA. 2343</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>350025</v>
       </c>
       <c r="H106" t="n">
-        <v>69.55</v>
+        <v>7.8542</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
@@ -4153,10 +4149,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -4164,7 +4160,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -4173,12 +4169,16 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>349236</v>
+        <v>110152</v>
       </c>
       <c r="H107" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>86.5</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>B77</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>S</t>
@@ -4194,35 +4194,35 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>2689</v>
+        <v>345777</v>
       </c>
       <c r="H108" t="n">
-        <v>14.4583</v>
+        <v>9.5</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -4230,19 +4230,19 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>315098</v>
+        <v>29750</v>
       </c>
       <c r="H109" t="n">
-        <v>8.6625</v>
+        <v>39</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -4264,28 +4264,24 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>19</v>
+        <v>0.75</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>112053</v>
+        <v>2666</v>
       </c>
       <c r="H110" t="n">
-        <v>30</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>B42</t>
-        </is>
-      </c>
+        <v>19.2583</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -4294,33 +4290,29 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>113781</v>
+        <v>7534</v>
       </c>
       <c r="H111" t="n">
-        <v>151.55</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>C22 C26</t>
-        </is>
-      </c>
+        <v>9.216699999999999</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
           <t>S</t>
@@ -4332,15 +4324,15 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -4349,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>345767</v>
+        <v>237671</v>
       </c>
       <c r="H112" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
@@ -4363,18 +4355,18 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -4383,54 +4375,50 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>11767</v>
+        <v>17463</v>
       </c>
       <c r="H113" t="n">
-        <v>83.1583</v>
+        <v>51.8625</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>C54</t>
+          <t>E46</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>19928</v>
+        <v>382652</v>
       </c>
       <c r="H114" t="n">
-        <v>90</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>C78</t>
-        </is>
-      </c>
+        <v>29.125</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
           <t>Q</t>
@@ -4439,38 +4427,32 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>PC 17473</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3101295</v>
       </c>
       <c r="H115" t="n">
-        <v>26.2875</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>E25</t>
-        </is>
-      </c>
+        <v>39.6875</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
           <t>S</t>
@@ -4479,37 +4461,35 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>SC/Paris 2123</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>345783</v>
       </c>
       <c r="H116" t="n">
-        <v>41.5792</v>
+        <v>9.5</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4526,33 +4506,33 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>2680</v>
+        <v>3101277</v>
       </c>
       <c r="H117" t="n">
-        <v>14.4542</v>
+        <v>7.925</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -4560,7 +4540,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -4568,22 +4548,16 @@
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>PC 17755</t>
-        </is>
+      <c r="G118" t="n">
+        <v>363294</v>
       </c>
       <c r="H118" t="n">
-        <v>512.3292</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>B101</t>
-        </is>
-      </c>
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -4600,19 +4574,19 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>11668</v>
+        <v>349248</v>
       </c>
       <c r="H119" t="n">
-        <v>21</v>
+        <v>7.8958</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
@@ -4623,18 +4597,18 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -4643,19 +4617,15 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>16966</v>
+        <v>345769</v>
       </c>
       <c r="H120" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>E40</t>
-        </is>
-      </c>
+        <v>9.5</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -4664,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4672,21 +4642,19 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>W./C. 6608</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>693</v>
       </c>
       <c r="H121" t="n">
-        <v>34.375</v>
+        <v>26</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
@@ -4700,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4708,25 +4676,21 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>5727</v>
+        <v>345764</v>
       </c>
       <c r="H122" t="n">
-        <v>25.5875</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>E58</t>
-        </is>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
           <t>S</t>
@@ -4735,10 +4699,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4752,53 +4716,47 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>PC 17759</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>7267</v>
       </c>
       <c r="H123" t="n">
-        <v>63.3583</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>D10 D12</t>
-        </is>
-      </c>
+        <v>9.225</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>250644</v>
+        <v>347069</v>
       </c>
       <c r="H124" t="n">
-        <v>19.5</v>
+        <v>7.775</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
@@ -4809,35 +4767,33 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
         <v>3</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>34</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>347080</v>
+        <v>330980</v>
       </c>
       <c r="H125" t="n">
-        <v>14.4</v>
+        <v>7.8792</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -4854,19 +4810,19 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>29103</v>
+        <v>230434</v>
       </c>
       <c r="H126" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
@@ -4877,10 +4833,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -4888,7 +4844,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -4896,13 +4852,19 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="n">
-        <v>1601</v>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PC 17475</t>
+        </is>
       </c>
       <c r="H127" t="n">
-        <v>56.4958</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>26.2875</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>E24</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr">
         <is>
           <t>S</t>
@@ -4911,7 +4873,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -4921,9 +4883,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>45</v>
-      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
         <v>0</v>
       </c>
@@ -4931,16 +4891,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>113784</v>
+        <v>111427</v>
       </c>
       <c r="H128" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
+        <v>26.55</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
           <t>S</t>
@@ -4949,19 +4905,17 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>18</v>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
         <v>0</v>
       </c>
@@ -4969,12 +4923,16 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>347078</v>
+        <v>19988</v>
       </c>
       <c r="H129" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>30.5</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>C106</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>S</t>
@@ -4983,30 +4941,30 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>3101295</v>
+        <v>250644</v>
       </c>
       <c r="H130" t="n">
-        <v>39.6875</v>
+        <v>19.5</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
@@ -5020,25 +4978,29 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>22</v>
+      </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="n">
-        <v>113798</v>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>A/5 21172</t>
+        </is>
       </c>
       <c r="H131" t="n">
-        <v>31</v>
+        <v>7.25</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
@@ -5049,36 +5011,34 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B132" t="n">
         <v>2</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>36.5</v>
+        <v>33</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
         <v>2</v>
       </c>
-      <c r="G132" t="n">
-        <v>230080</v>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>C.A. 34651</t>
+        </is>
       </c>
       <c r="H132" t="n">
-        <v>26</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
+        <v>27.75</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
           <t>S</t>
@@ -5094,23 +5054,23 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>345773</v>
+        <v>349224</v>
       </c>
       <c r="H133" t="n">
-        <v>24.15</v>
+        <v>7.8958</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
@@ -5131,20 +5091,20 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>22</v>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="n">
-        <v>349206</v>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>SOTON/O.Q. 3101305</t>
+        </is>
       </c>
       <c r="H134" t="n">
-        <v>7.8958</v>
+        <v>7.05</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
@@ -5158,33 +5118,29 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>113781</v>
+        <v>350052</v>
       </c>
       <c r="H135" t="n">
-        <v>151.55</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>C22 C26</t>
-        </is>
-      </c>
+        <v>7.7958</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
           <t>S</t>
@@ -5204,19 +5160,21 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="n">
-        <v>376566</v>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>C 7075</t>
+        </is>
       </c>
       <c r="H136" t="n">
-        <v>16.1</v>
+        <v>6.45</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
@@ -5230,29 +5188,25 @@
         <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>43</v>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>F.C.C. 13529</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>349201</v>
       </c>
       <c r="H137" t="n">
-        <v>26.25</v>
+        <v>7.8958</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
@@ -5266,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -5274,57 +5228,59 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>PC 17604</t>
+          <t>SOTON/O.Q. 3101312</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>82.1708</v>
+        <v>7.05</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>29</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>3460</v>
+        <v>113505</v>
       </c>
       <c r="H139" t="n">
-        <v>7.0458</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>E33</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr">
         <is>
           <t>S</t>
@@ -5333,36 +5289,34 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>392096</v>
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>S.O.C. 14879</t>
+        </is>
       </c>
       <c r="H140" t="n">
-        <v>12.475</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>E121</t>
-        </is>
-      </c>
+        <v>73.5</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
           <t>S</t>
@@ -5382,7 +5336,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -5390,13 +5344,11 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>STON/O 2. 3101273</t>
-        </is>
+      <c r="G141" t="n">
+        <v>349203</v>
       </c>
       <c r="H141" t="n">
-        <v>7.125</v>
+        <v>7.8958</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
@@ -5410,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -5418,7 +5370,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -5427,16 +5379,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>113787</v>
+        <v>349243</v>
       </c>
       <c r="H142" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>C30</t>
-        </is>
-      </c>
+        <v>7.8958</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
           <t>S</t>
@@ -5448,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -5456,7 +5404,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -5464,19 +5412,13 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>PC 17582</t>
-        </is>
+      <c r="G143" t="n">
+        <v>349244</v>
       </c>
       <c r="H143" t="n">
-        <v>153.4625</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>C125</t>
-        </is>
-      </c>
+        <v>8.683299999999999</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
           <t>S</t>
@@ -5485,33 +5427,39 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>23</v>
+      </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G144" t="n">
-        <v>371110</v>
+        <v>19950</v>
       </c>
       <c r="H144" t="n">
-        <v>24.15</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>C23 C25 C27</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -5527,36 +5475,32 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>24</v>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
         <v>1</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>STON/O2. 3101279</t>
-        </is>
+      <c r="G145" t="n">
+        <v>367230</v>
       </c>
       <c r="H145" t="n">
-        <v>15.85</v>
+        <v>15.5</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -5564,25 +5508,23 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
-      <c r="G146" t="n">
-        <v>113806</v>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>LINE</t>
+        </is>
       </c>
       <c r="H146" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>E8</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
           <t>S</t>
@@ -5594,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -5602,7 +5544,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -5611,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>231945</v>
+        <v>350050</v>
       </c>
       <c r="H147" t="n">
-        <v>11.5</v>
+        <v>7.8542</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
@@ -5625,68 +5567,68 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>8</v>
+      </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="n">
-        <v>2647</v>
+        <v>1</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>C.A. 33112</t>
+        </is>
       </c>
       <c r="H148" t="n">
-        <v>7.225</v>
+        <v>36.75</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>11752</v>
+        <v>364500</v>
       </c>
       <c r="H149" t="n">
-        <v>26.2833</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>D47</t>
-        </is>
-      </c>
+        <v>7.25</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
           <t>S</t>
@@ -5695,7 +5637,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
         <v>3</v>
@@ -5706,7 +5648,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -5715,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>350034</v>
+        <v>347074</v>
       </c>
       <c r="H150" t="n">
-        <v>7.7958</v>
+        <v>7.775</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
@@ -5732,27 +5674,27 @@
         <v>0</v>
       </c>
       <c r="B151" t="n">
+        <v>3</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4</v>
+      </c>
+      <c r="F151" t="n">
         <v>2</v>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>42</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
       <c r="G151" t="n">
-        <v>243847</v>
+        <v>347082</v>
       </c>
       <c r="H151" t="n">
-        <v>27</v>
+        <v>31.275</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
@@ -5763,7 +5705,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152" t="n">
         <v>3</v>
@@ -5774,7 +5716,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -5782,11 +5724,13 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
-      <c r="G152" t="n">
-        <v>350043</v>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>C.A. 5547</t>
+        </is>
       </c>
       <c r="H152" t="n">
-        <v>7.7958</v>
+        <v>7.55</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
@@ -5797,17 +5741,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>38</v>
+      </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
@@ -5816,52 +5762,58 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>SOTON/OQ 3101316</t>
+          <t>PC 17757</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>227.525</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>C45</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>P/PP 3381</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>392096</v>
       </c>
       <c r="H154" t="n">
-        <v>24</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>12.475</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>E121</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -5870,15 +5822,15 @@
         <v>1</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -5886,11 +5838,13 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
-      <c r="G155" t="n">
-        <v>234604</v>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>STON/O 2. 3101289</t>
+        </is>
       </c>
       <c r="H155" t="n">
-        <v>13</v>
+        <v>7.925</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
@@ -5904,14 +5858,16 @@
         <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>19</v>
+      </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
@@ -5919,49 +5875,49 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>35852</v>
+        <v>250655</v>
       </c>
       <c r="H156" t="n">
-        <v>7.7333</v>
+        <v>26</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>2666</v>
+        <v>113059</v>
       </c>
       <c r="H157" t="n">
-        <v>19.2583</v>
+        <v>47.1</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -5970,67 +5926,59 @@
         <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>36</v>
-      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>WE/P 5735</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>370370</v>
       </c>
       <c r="H158" t="n">
-        <v>71</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>B22</t>
-        </is>
-      </c>
+        <v>7.75</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>347064</v>
+        <v>230433</v>
       </c>
       <c r="H159" t="n">
-        <v>7.75</v>
+        <v>26</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
@@ -6041,33 +5989,39 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>45</v>
+      </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>2661</v>
+        <v>113784</v>
       </c>
       <c r="H160" t="n">
-        <v>15.2458</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>35.5</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6080,35 +6034,37 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>45</v>
+      </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G161" t="n">
-        <v>367655</v>
+        <v>347088</v>
       </c>
       <c r="H161" t="n">
-        <v>7.7292</v>
+        <v>27.9</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -6116,43 +6072,45 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>P/PP 3381</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>347054</v>
       </c>
       <c r="H162" t="n">
-        <v>24</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>10.4625</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>G6</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -6160,16 +6118,18 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
-      <c r="G163" t="n">
-        <v>347062</v>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>PC 17761</t>
+        </is>
       </c>
       <c r="H163" t="n">
-        <v>7.775</v>
+        <v>106.425</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6196,51 +6156,45 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>PC 17760</t>
+          <t>PC 17755</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>135.6333</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>C99</t>
-        </is>
-      </c>
+        <v>512.3292</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>22</v>
+        <v>45.5</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>SC/Paris 2123</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2628</v>
       </c>
       <c r="H165" t="n">
-        <v>41.5792</v>
+        <v>7.225</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
@@ -6254,34 +6208,36 @@
         <v>1</v>
       </c>
       <c r="B166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>C.A. 37671</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>110813</v>
       </c>
       <c r="H166" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>75.25</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>D37</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6298,19 +6254,19 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>244252</v>
+        <v>229236</v>
       </c>
       <c r="H167" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
@@ -6332,19 +6288,19 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>347464</v>
+        <v>4579</v>
       </c>
       <c r="H168" t="n">
-        <v>7.8542</v>
+        <v>8.404199999999999</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
@@ -6358,31 +6314,31 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>19</v>
-      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>C.A. 33112</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>113028</v>
       </c>
       <c r="H169" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>26.55</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>C124</t>
+        </is>
+      </c>
       <c r="J169" t="inlineStr">
         <is>
           <t>S</t>
@@ -6401,9 +6357,7 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>36</v>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
         <v>0</v>
       </c>
@@ -6411,15 +6365,15 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>349210</v>
+        <v>2664</v>
       </c>
       <c r="H170" t="n">
-        <v>7.4958</v>
+        <v>7.225</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6389,9 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>22</v>
+      </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
@@ -6443,10 +6399,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>349223</v>
+        <v>350060</v>
       </c>
       <c r="H171" t="n">
-        <v>7.8958</v>
+        <v>7.5208</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
@@ -6457,37 +6413,35 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E172" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>CA 2144</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>113798</v>
       </c>
       <c r="H172" t="n">
-        <v>46.9</v>
+        <v>31</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -6496,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -6504,7 +6458,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>28.5</v>
+        <v>70</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -6512,11 +6466,13 @@
       <c r="F173" t="n">
         <v>0</v>
       </c>
-      <c r="G173" t="n">
-        <v>54636</v>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>C.A. 24580</t>
+        </is>
       </c>
       <c r="H173" t="n">
-        <v>16.1</v>
+        <v>10.5</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
@@ -6534,23 +6490,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>315097</v>
+        <v>349909</v>
       </c>
       <c r="H174" t="n">
-        <v>8.6625</v>
+        <v>21.075</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
@@ -6561,10 +6517,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -6572,65 +6528,55 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>17</v>
+        <v>24.5</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>17421</v>
+        <v>342826</v>
       </c>
       <c r="H175" t="n">
-        <v>110.8833</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>C70</t>
-        </is>
-      </c>
+        <v>8.050000000000001</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>35</v>
-      </c>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>PC 17475</t>
+          <t>W./C. 6607</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>26.2875</v>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>E24</t>
-        </is>
-      </c>
+        <v>23.45</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
           <t>S</t>
@@ -6650,7 +6596,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -6658,47 +6604,47 @@
       <c r="F177" t="n">
         <v>0</v>
       </c>
-      <c r="G177" t="n">
-        <v>349231</v>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>A/5. 13032</t>
+        </is>
       </c>
       <c r="H177" t="n">
-        <v>7.8958</v>
+        <v>7.7333</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>SO/C 14885</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>371362</v>
       </c>
       <c r="H178" t="n">
-        <v>10.5</v>
+        <v>16.1</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
@@ -6716,28 +6662,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
-      </c>
-      <c r="G179" t="n">
-        <v>364849</v>
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>A/4 48871</t>
+        </is>
       </c>
       <c r="H179" t="n">
-        <v>15.5</v>
+        <v>24.15</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>S</t>
         </is>
       </c>
     </row>
